--- a/REGULAR/CITY MARKET/DIMAPILIS ARIEL.xlsx
+++ b/REGULAR/CITY MARKET/DIMAPILIS ARIEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LEAVE RON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CITY MARKET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1940BE-BABC-4269-9DC8-722A55B93753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="211">
   <si>
     <t>PERIOD</t>
   </si>
@@ -624,11 +623,65 @@
   <si>
     <t>8/7,8/2023</t>
   </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>A(4-0-0)</t>
+  </si>
+  <si>
+    <t>12/18,20,27,28/2023</t>
+  </si>
+  <si>
+    <t>UT(0-2-24)</t>
+  </si>
+  <si>
+    <t>UT(0-0-9)</t>
+  </si>
+  <si>
+    <t>UT(1-4-13)</t>
+  </si>
+  <si>
+    <t>8/12,29/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
+  </si>
+  <si>
+    <t>UT(0-0-54)</t>
+  </si>
+  <si>
+    <t>UT(1-0-9)</t>
+  </si>
+  <si>
+    <t>UT(0-1-28)</t>
+  </si>
+  <si>
+    <t>4/3,6,8,10/2023</t>
+  </si>
+  <si>
+    <t>UT(0-4-42)</t>
+  </si>
+  <si>
+    <t>3/14,22/2023</t>
+  </si>
+  <si>
+    <t>UT(0-1-13)</t>
+  </si>
+  <si>
+    <t>UT(0-1-15)</t>
+  </si>
+  <si>
+    <t>1/7,11/2023</t>
+  </si>
+  <si>
+    <t>UT(0-3-48)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1297,7 +1350,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1314,25 +1367,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K333" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K359" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1639,34 +1692,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K333"/>
+  <dimension ref="A2:K359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1308" topLeftCell="A319" activePane="bottomLeft"/>
-      <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="E327" sqref="E327"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A313" activePane="bottomLeft"/>
+      <selection activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="E324" sqref="E324"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1689,7 +1742,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1711,7 +1764,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1733,7 +1786,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1741,7 +1794,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1754,7 +1807,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1771,7 +1824,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +1859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1815,7 +1868,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>156.05200000000005</v>
+        <v>140.27000000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1825,12 +1878,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>348.04200000000003</v>
+        <v>352.79200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="20" t="s">
         <v>83</v>
@@ -1848,7 +1901,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>84</v>
       </c>
@@ -1870,7 +1923,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>37257</v>
       </c>
@@ -1890,7 +1943,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>37288</v>
       </c>
@@ -1910,7 +1963,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>37316</v>
       </c>
@@ -1930,7 +1983,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>37347</v>
       </c>
@@ -1950,7 +2003,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>37377</v>
       </c>
@@ -1970,7 +2023,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>37408</v>
       </c>
@@ -1990,7 +2043,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>37438</v>
       </c>
@@ -2010,7 +2063,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>37469</v>
       </c>
@@ -2030,7 +2083,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>37500</v>
       </c>
@@ -2050,7 +2103,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>37530</v>
       </c>
@@ -2070,7 +2123,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>37561</v>
       </c>
@@ -2094,7 +2147,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>37591</v>
       </c>
@@ -2114,7 +2167,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>86</v>
       </c>
@@ -2132,7 +2185,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>37622</v>
       </c>
@@ -2152,7 +2205,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>37653</v>
       </c>
@@ -2172,7 +2225,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>37681</v>
       </c>
@@ -2192,7 +2245,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>37712</v>
       </c>
@@ -2212,7 +2265,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>37742</v>
       </c>
@@ -2232,7 +2285,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>37773</v>
       </c>
@@ -2252,7 +2305,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>37803</v>
       </c>
@@ -2272,7 +2325,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>37834</v>
       </c>
@@ -2292,7 +2345,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>37865</v>
       </c>
@@ -2312,7 +2365,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>37895</v>
       </c>
@@ -2332,7 +2385,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>37926</v>
       </c>
@@ -2352,7 +2405,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>37956</v>
       </c>
@@ -2376,7 +2429,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>87</v>
       </c>
@@ -2391,7 +2444,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>37987</v>
       </c>
@@ -2411,7 +2464,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>38018</v>
       </c>
@@ -2431,7 +2484,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>38047</v>
       </c>
@@ -2451,7 +2504,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>38078</v>
       </c>
@@ -2471,7 +2524,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>38108</v>
       </c>
@@ -2491,7 +2544,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>38139</v>
       </c>
@@ -2515,7 +2568,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>38169</v>
       </c>
@@ -2539,7 +2592,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>38200</v>
       </c>
@@ -2563,7 +2616,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>38231</v>
       </c>
@@ -2583,7 +2636,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>38261</v>
       </c>
@@ -2603,7 +2656,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>38292</v>
       </c>
@@ -2623,7 +2676,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>38322</v>
       </c>
@@ -2647,7 +2700,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>91</v>
       </c>
@@ -2665,7 +2718,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>38353</v>
       </c>
@@ -2685,7 +2738,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>38384</v>
       </c>
@@ -2705,7 +2758,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>38412</v>
       </c>
@@ -2725,7 +2778,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>38443</v>
       </c>
@@ -2745,7 +2798,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>38473</v>
       </c>
@@ -2765,7 +2818,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>38504</v>
       </c>
@@ -2785,7 +2838,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>38534</v>
       </c>
@@ -2805,7 +2858,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>38565</v>
       </c>
@@ -2829,7 +2882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>38596</v>
       </c>
@@ -2849,7 +2902,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>38626</v>
       </c>
@@ -2869,7 +2922,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>38657</v>
       </c>
@@ -2889,7 +2942,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>38687</v>
       </c>
@@ -2913,7 +2966,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>94</v>
       </c>
@@ -2928,7 +2981,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>38718</v>
       </c>
@@ -2948,7 +3001,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>38749</v>
       </c>
@@ -2968,7 +3021,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>38777</v>
       </c>
@@ -2988,7 +3041,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>38808</v>
       </c>
@@ -3008,7 +3061,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>38838</v>
       </c>
@@ -3028,7 +3081,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>38869</v>
       </c>
@@ -3048,7 +3101,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>38899</v>
       </c>
@@ -3068,7 +3121,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>38930</v>
       </c>
@@ -3088,7 +3141,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>38961</v>
       </c>
@@ -3108,7 +3161,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>38991</v>
       </c>
@@ -3128,7 +3181,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>39022</v>
       </c>
@@ -3148,7 +3201,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>39052</v>
       </c>
@@ -3172,7 +3225,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>97</v>
       </c>
@@ -3187,7 +3240,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>39083</v>
       </c>
@@ -3211,7 +3264,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>39114</v>
       </c>
@@ -3235,7 +3288,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>39142</v>
       </c>
@@ -3255,7 +3308,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>39173</v>
       </c>
@@ -3281,7 +3334,7 @@
         <v>39192</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>39203</v>
       </c>
@@ -3301,7 +3354,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>39234</v>
       </c>
@@ -3321,7 +3374,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>39264</v>
       </c>
@@ -3347,7 +3400,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>39295</v>
       </c>
@@ -3367,7 +3420,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>39326</v>
       </c>
@@ -3387,7 +3440,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>39356</v>
       </c>
@@ -3407,7 +3460,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>39387</v>
       </c>
@@ -3427,7 +3480,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>39417</v>
       </c>
@@ -3451,7 +3504,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
         <v>99</v>
       </c>
@@ -3466,7 +3519,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>39448</v>
       </c>
@@ -3490,7 +3543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>101</v>
@@ -3507,7 +3560,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>39479</v>
       </c>
@@ -3531,7 +3584,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>39508</v>
       </c>
@@ -3555,7 +3608,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>39539</v>
       </c>
@@ -3579,7 +3632,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>39569</v>
       </c>
@@ -3603,7 +3656,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>39600</v>
       </c>
@@ -3623,7 +3676,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>39630</v>
       </c>
@@ -3643,7 +3696,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>39661</v>
       </c>
@@ -3663,7 +3716,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>39692</v>
       </c>
@@ -3683,7 +3736,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>39722</v>
       </c>
@@ -3707,7 +3760,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>106</v>
@@ -3726,7 +3779,7 @@
         <v>39731</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>64</v>
@@ -3745,7 +3798,7 @@
         <v>39729</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>39753</v>
       </c>
@@ -3769,7 +3822,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>39783</v>
       </c>
@@ -3793,7 +3846,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>109</v>
@@ -3810,7 +3863,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>110</v>
       </c>
@@ -3825,7 +3878,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>39814</v>
       </c>
@@ -3849,7 +3902,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>39845</v>
       </c>
@@ -3873,7 +3926,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>39873</v>
       </c>
@@ -3897,7 +3950,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>115</v>
@@ -3914,7 +3967,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>39904</v>
       </c>
@@ -3938,7 +3991,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>39934</v>
       </c>
@@ -3962,7 +4015,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>39965</v>
       </c>
@@ -3986,7 +4039,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>39995</v>
       </c>
@@ -4010,7 +4063,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>40026</v>
       </c>
@@ -4034,7 +4087,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>40057</v>
       </c>
@@ -4058,7 +4111,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>40087</v>
       </c>
@@ -4084,7 +4137,7 @@
         <v>40141</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>122</v>
@@ -4101,7 +4154,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>40118</v>
       </c>
@@ -4125,7 +4178,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>40148</v>
       </c>
@@ -4151,7 +4204,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>125</v>
@@ -4168,7 +4221,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>127</v>
       </c>
@@ -4183,7 +4236,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>40179</v>
       </c>
@@ -4209,7 +4262,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>128</v>
@@ -4226,7 +4279,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>40210</v>
       </c>
@@ -4250,7 +4303,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>40238</v>
       </c>
@@ -4274,7 +4327,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>40269</v>
       </c>
@@ -4298,7 +4351,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>141</v>
@@ -4317,7 +4370,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>138</v>
@@ -4336,7 +4389,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>109</v>
@@ -4356,7 +4409,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>40299</v>
       </c>
@@ -4380,7 +4433,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>40330</v>
       </c>
@@ -4404,7 +4457,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>40360</v>
       </c>
@@ -4428,7 +4481,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>40391</v>
       </c>
@@ -4454,7 +4507,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>135</v>
@@ -4471,7 +4524,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>40422</v>
       </c>
@@ -4495,7 +4548,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>137</v>
@@ -4512,7 +4565,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>40452</v>
       </c>
@@ -4536,7 +4589,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>40483</v>
       </c>
@@ -4562,7 +4615,7 @@
         <v>40527</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>145</v>
@@ -4582,7 +4635,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>40513</v>
       </c>
@@ -4606,7 +4659,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
         <v>147</v>
       </c>
@@ -4621,7 +4674,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>40544</v>
       </c>
@@ -4645,7 +4698,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>149</v>
@@ -4662,7 +4715,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>40575</v>
       </c>
@@ -4686,7 +4739,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>40603</v>
       </c>
@@ -4710,7 +4763,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>152</v>
@@ -4730,7 +4783,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>40634</v>
       </c>
@@ -4754,7 +4807,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>40664</v>
       </c>
@@ -4778,7 +4831,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>40695</v>
       </c>
@@ -4802,7 +4855,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>40725</v>
       </c>
@@ -4826,7 +4879,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>40756</v>
       </c>
@@ -4850,7 +4903,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>40787</v>
       </c>
@@ -4874,7 +4927,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>40817</v>
       </c>
@@ -4898,7 +4951,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>40848</v>
       </c>
@@ -4922,7 +4975,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>40878</v>
       </c>
@@ -4948,7 +5001,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>89</v>
@@ -4965,7 +5018,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="48" t="s">
         <v>162</v>
       </c>
@@ -4980,7 +5033,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>40909</v>
       </c>
@@ -5004,7 +5057,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>40940</v>
       </c>
@@ -5024,7 +5077,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>40969</v>
       </c>
@@ -5044,7 +5097,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>41000</v>
       </c>
@@ -5068,7 +5121,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>41030</v>
       </c>
@@ -5088,7 +5141,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>41061</v>
       </c>
@@ -5108,7 +5161,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>41091</v>
       </c>
@@ -5128,7 +5181,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>41122</v>
       </c>
@@ -5148,7 +5201,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>41153</v>
       </c>
@@ -5168,7 +5221,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>41183</v>
       </c>
@@ -5188,7 +5241,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>41214</v>
       </c>
@@ -5214,7 +5267,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>41244</v>
       </c>
@@ -5234,7 +5287,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="48" t="s">
         <v>166</v>
       </c>
@@ -5252,7 +5305,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>41275</v>
       </c>
@@ -5272,7 +5325,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>41306</v>
       </c>
@@ -5292,7 +5345,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>41334</v>
       </c>
@@ -5312,7 +5365,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>41365</v>
       </c>
@@ -5336,7 +5389,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>65</v>
@@ -5356,7 +5409,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>41395</v>
       </c>
@@ -5376,7 +5429,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>41426</v>
       </c>
@@ -5396,7 +5449,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>41456</v>
       </c>
@@ -5416,7 +5469,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>41487</v>
       </c>
@@ -5436,7 +5489,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>41518</v>
       </c>
@@ -5456,7 +5509,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>41548</v>
       </c>
@@ -5476,7 +5529,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>41579</v>
       </c>
@@ -5502,7 +5555,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>41609</v>
       </c>
@@ -5522,7 +5575,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="48" t="s">
         <v>170</v>
       </c>
@@ -5537,7 +5590,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>41640</v>
       </c>
@@ -5557,7 +5610,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>41671</v>
       </c>
@@ -5577,7 +5630,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>41699</v>
       </c>
@@ -5597,7 +5650,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>41730</v>
       </c>
@@ -5619,7 +5672,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>41760</v>
       </c>
@@ -5645,7 +5698,7 @@
         <v>41785</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>41791</v>
       </c>
@@ -5665,7 +5718,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>41821</v>
       </c>
@@ -5685,7 +5738,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>41852</v>
       </c>
@@ -5705,7 +5758,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>41883</v>
       </c>
@@ -5725,7 +5778,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>41913</v>
       </c>
@@ -5745,7 +5798,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>41944</v>
       </c>
@@ -5765,7 +5818,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>41974</v>
       </c>
@@ -5789,7 +5842,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="48" t="s">
         <v>171</v>
       </c>
@@ -5807,7 +5860,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>42005</v>
       </c>
@@ -5827,7 +5880,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>42036</v>
       </c>
@@ -5847,7 +5900,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>42064</v>
       </c>
@@ -5867,7 +5920,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>42095</v>
       </c>
@@ -5887,7 +5940,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>42125</v>
       </c>
@@ -5907,7 +5960,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>42156</v>
       </c>
@@ -5927,7 +5980,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>42186</v>
       </c>
@@ -5947,7 +6000,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>42217</v>
       </c>
@@ -5967,7 +6020,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>42248</v>
       </c>
@@ -5987,7 +6040,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>42278</v>
       </c>
@@ -6007,7 +6060,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>42309</v>
       </c>
@@ -6027,7 +6080,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>42339</v>
       </c>
@@ -6051,7 +6104,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="48" t="s">
         <v>172</v>
       </c>
@@ -6066,7 +6119,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>42370</v>
       </c>
@@ -6090,7 +6143,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>42401</v>
       </c>
@@ -6114,7 +6167,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>42430</v>
       </c>
@@ -6138,7 +6191,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>42461</v>
       </c>
@@ -6162,7 +6215,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>42491</v>
       </c>
@@ -6186,7 +6239,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>42522</v>
       </c>
@@ -6210,7 +6263,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>42552</v>
       </c>
@@ -6234,7 +6287,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>42583</v>
       </c>
@@ -6258,7 +6311,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>42614</v>
       </c>
@@ -6282,7 +6335,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>42644</v>
       </c>
@@ -6306,7 +6359,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>42675</v>
       </c>
@@ -6330,7 +6383,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>42705</v>
       </c>
@@ -6354,7 +6407,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>183</v>
@@ -6371,7 +6424,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="48" t="s">
         <v>184</v>
       </c>
@@ -6386,7 +6439,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>42736</v>
       </c>
@@ -6406,7 +6459,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>42767</v>
       </c>
@@ -6426,7 +6479,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>42795</v>
       </c>
@@ -6446,7 +6499,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>42826</v>
       </c>
@@ -6470,7 +6523,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>42856</v>
       </c>
@@ -6490,7 +6543,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>42887</v>
       </c>
@@ -6516,7 +6569,7 @@
         <v>42900</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>42917</v>
       </c>
@@ -6536,7 +6589,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>42948</v>
       </c>
@@ -6556,7 +6609,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>42979</v>
       </c>
@@ -6576,7 +6629,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>43009</v>
       </c>
@@ -6602,7 +6655,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>43040</v>
       </c>
@@ -6622,7 +6675,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>43070</v>
       </c>
@@ -6646,7 +6699,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="48" t="s">
         <v>45</v>
       </c>
@@ -6664,7 +6717,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>43101</v>
       </c>
@@ -6684,7 +6737,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>43132</v>
       </c>
@@ -6704,7 +6757,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>43160</v>
       </c>
@@ -6724,7 +6777,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>43191</v>
       </c>
@@ -6744,7 +6797,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="41">
         <v>43221</v>
       </c>
@@ -6764,7 +6817,7 @@
       <c r="J243" s="12"/>
       <c r="K243" s="15"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>43252</v>
       </c>
@@ -6784,7 +6837,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>43282</v>
       </c>
@@ -6810,7 +6863,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>43313</v>
       </c>
@@ -6836,7 +6889,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>43344</v>
       </c>
@@ -6856,7 +6909,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>43374</v>
       </c>
@@ -6876,7 +6929,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>43405</v>
       </c>
@@ -6896,7 +6949,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>43435</v>
       </c>
@@ -6920,7 +6973,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="48" t="s">
         <v>46</v>
       </c>
@@ -6938,7 +6991,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>43466</v>
       </c>
@@ -6958,7 +7011,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>43497</v>
       </c>
@@ -6978,7 +7031,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>43525</v>
       </c>
@@ -6998,7 +7051,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>43556</v>
       </c>
@@ -7018,7 +7071,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>43586</v>
       </c>
@@ -7038,7 +7091,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>43617</v>
       </c>
@@ -7058,7 +7111,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>43647</v>
       </c>
@@ -7078,7 +7131,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>43678</v>
       </c>
@@ -7098,7 +7151,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>43709</v>
       </c>
@@ -7118,7 +7171,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>43739</v>
       </c>
@@ -7144,7 +7197,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>59</v>
@@ -7168,7 +7221,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>43770</v>
       </c>
@@ -7188,7 +7241,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>43800</v>
       </c>
@@ -7212,7 +7265,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="48"/>
       <c r="B265" s="20" t="s">
         <v>124</v>
@@ -7232,7 +7285,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="48" t="s">
         <v>47</v>
       </c>
@@ -7250,7 +7303,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>43831</v>
       </c>
@@ -7274,7 +7327,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>190</v>
@@ -7296,7 +7349,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>64</v>
@@ -7320,7 +7373,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>43862</v>
       </c>
@@ -7340,7 +7393,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>43891</v>
       </c>
@@ -7360,7 +7413,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>43922</v>
       </c>
@@ -7380,7 +7433,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>43952</v>
       </c>
@@ -7400,7 +7453,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>43983</v>
       </c>
@@ -7426,7 +7479,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>85</v>
@@ -7448,7 +7501,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>44013</v>
       </c>
@@ -7468,7 +7521,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>44044</v>
       </c>
@@ -7488,7 +7541,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>44075</v>
       </c>
@@ -7508,7 +7561,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>44105</v>
       </c>
@@ -7528,7 +7581,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>44136</v>
       </c>
@@ -7548,7 +7601,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>44166</v>
       </c>
@@ -7568,7 +7621,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="48" t="s">
         <v>50</v>
       </c>
@@ -7586,7 +7639,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>44197</v>
       </c>
@@ -7606,7 +7659,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>44228</v>
       </c>
@@ -7626,7 +7679,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>44256</v>
       </c>
@@ -7646,7 +7699,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>44287</v>
       </c>
@@ -7666,7 +7719,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>44317</v>
       </c>
@@ -7686,7 +7739,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>44348</v>
       </c>
@@ -7706,7 +7759,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>44378</v>
       </c>
@@ -7726,7 +7779,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>44409</v>
       </c>
@@ -7746,7 +7799,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>44440</v>
       </c>
@@ -7766,7 +7819,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>44470</v>
       </c>
@@ -7786,7 +7839,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>44501</v>
       </c>
@@ -7806,7 +7859,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>44531</v>
       </c>
@@ -7830,7 +7883,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23" t="s">
         <v>51</v>
       </c>
@@ -7848,7 +7901,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>44562</v>
       </c>
@@ -7868,7 +7921,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>44593</v>
       </c>
@@ -7888,7 +7941,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>44621</v>
       </c>
@@ -7908,7 +7961,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>44652</v>
       </c>
@@ -7934,7 +7987,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>82</v>
@@ -7954,7 +8007,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>44682</v>
       </c>
@@ -7980,7 +8033,7 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>80</v>
@@ -8000,7 +8053,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="49"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>44713</v>
       </c>
@@ -8026,7 +8079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>79</v>
@@ -8046,7 +8099,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>44743</v>
       </c>
@@ -8072,7 +8125,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>75</v>
@@ -8094,7 +8147,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>44774</v>
       </c>
@@ -8120,7 +8173,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>44805</v>
       </c>
@@ -8146,7 +8199,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>73</v>
@@ -8166,7 +8219,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="49"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>44835</v>
       </c>
@@ -8192,7 +8245,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>72</v>
@@ -8212,7 +8265,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>44866</v>
       </c>
@@ -8238,7 +8291,7 @@
         <v>44891</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>69</v>
@@ -8258,7 +8311,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="49"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>44896</v>
       </c>
@@ -8284,7 +8337,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>54</v>
@@ -8304,7 +8357,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>67</v>
@@ -8324,7 +8377,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="48" t="s">
         <v>55</v>
       </c>
@@ -8342,15 +8395,19 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>44927</v>
       </c>
-      <c r="B318" s="20"/>
+      <c r="B318" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C318" s="13">
         <v>1.25</v>
       </c>
-      <c r="D318" s="39"/>
+      <c r="D318" s="39">
+        <v>2</v>
+      </c>
       <c r="E318" s="9"/>
       <c r="F318" s="20"/>
       <c r="G318" s="13">
@@ -8360,34 +8417,36 @@
       <c r="H318" s="39"/>
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
-      <c r="K318" s="20"/>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A319" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B319" s="20"/>
-      <c r="C319" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D319" s="39"/>
+      <c r="K318" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319" s="40"/>
+      <c r="B319" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C319" s="13"/>
+      <c r="D319" s="39">
+        <v>0.47499999999999998</v>
+      </c>
       <c r="E319" s="9"/>
       <c r="F319" s="20"/>
-      <c r="G319" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G319" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H319" s="39"/>
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C320" s="13">
         <v>1.25</v>
@@ -8405,112 +8464,108 @@
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
       <c r="K320" s="49">
-        <v>45017</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="C321" s="13"/>
-      <c r="D321" s="39"/>
+      <c r="D321" s="39">
+        <v>0.15600000000000003</v>
+      </c>
       <c r="E321" s="9"/>
       <c r="F321" s="20"/>
       <c r="G321" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H321" s="39">
-        <v>2</v>
-      </c>
+      <c r="H321" s="39"/>
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
-      <c r="K321" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K321" s="49"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C322" s="13">
         <v>1.25</v>
       </c>
-      <c r="D322" s="39"/>
+      <c r="D322" s="39">
+        <v>1</v>
+      </c>
       <c r="E322" s="9"/>
       <c r="F322" s="20"/>
       <c r="G322" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H322" s="39">
-        <v>2</v>
-      </c>
+      <c r="H322" s="39"/>
       <c r="I322" s="9"/>
       <c r="J322" s="11"/>
-      <c r="K322" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A323" s="40">
-        <v>45047</v>
-      </c>
+      <c r="K322" s="49">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C323" s="13">
-        <v>1.25</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C323" s="13"/>
       <c r="D323" s="39"/>
       <c r="E323" s="9"/>
       <c r="F323" s="20"/>
-      <c r="G323" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G323" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H323" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" s="9"/>
       <c r="J323" s="11"/>
-      <c r="K323" s="49">
-        <v>45054</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K323" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C324" s="13"/>
-      <c r="D324" s="39"/>
+      <c r="D324" s="39">
+        <v>2</v>
+      </c>
       <c r="E324" s="9"/>
       <c r="F324" s="20"/>
       <c r="G324" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H324" s="39">
-        <v>2</v>
-      </c>
+      <c r="H324" s="39"/>
       <c r="I324" s="9"/>
       <c r="J324" s="11"/>
       <c r="K324" s="49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="C325" s="13"/>
-      <c r="D325" s="39"/>
+      <c r="D325" s="39">
+        <v>0.15200000000000002</v>
+      </c>
       <c r="E325" s="9"/>
       <c r="F325" s="20"/>
       <c r="G325" s="13" t="str">
@@ -8520,16 +8575,14 @@
       <c r="H325" s="39"/>
       <c r="I325" s="9"/>
       <c r="J325" s="11"/>
-      <c r="K325" s="49">
-        <v>45080</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K325" s="49"/>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C326" s="13">
         <v>1.25</v>
@@ -8542,105 +8595,109 @@
         <v>1.25</v>
       </c>
       <c r="H326" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326" s="9"/>
       <c r="J326" s="11"/>
-      <c r="K326" s="49">
-        <v>45080</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A327" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B327" s="20"/>
-      <c r="C327" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D327" s="39"/>
+      <c r="K326" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" s="40"/>
+      <c r="B327" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C327" s="13"/>
+      <c r="D327" s="39">
+        <v>4</v>
+      </c>
       <c r="E327" s="9"/>
       <c r="F327" s="20"/>
-      <c r="G327" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G327" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H327" s="39"/>
       <c r="I327" s="9"/>
       <c r="J327" s="11"/>
-      <c r="K327" s="20"/>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A328" s="40">
-        <v>45139</v>
-      </c>
+      <c r="K327" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C328" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D328" s="39"/>
+        <v>205</v>
+      </c>
+      <c r="C328" s="13"/>
+      <c r="D328" s="39">
+        <v>0.58699999999999997</v>
+      </c>
       <c r="E328" s="9"/>
       <c r="F328" s="20"/>
-      <c r="G328" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G328" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H328" s="39"/>
       <c r="I328" s="9"/>
       <c r="J328" s="11"/>
-      <c r="K328" s="49">
-        <v>45143</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A329" s="40"/>
+      <c r="K328" s="20"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" s="40">
+        <v>45047</v>
+      </c>
       <c r="B329" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C329" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="C329" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D329" s="39"/>
       <c r="E329" s="9"/>
       <c r="F329" s="20"/>
-      <c r="G329" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G329" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H329" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" s="9"/>
       <c r="J329" s="11"/>
-      <c r="K329" s="49" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A330" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B330" s="20"/>
-      <c r="C330" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K329" s="49">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" s="40"/>
+      <c r="B330" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C330" s="13"/>
       <c r="D330" s="39"/>
       <c r="E330" s="9"/>
       <c r="F330" s="20"/>
-      <c r="G330" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H330" s="39"/>
+      <c r="G330" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H330" s="39">
+        <v>2</v>
+      </c>
       <c r="I330" s="9"/>
       <c r="J330" s="11"/>
-      <c r="K330" s="20"/>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A331" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B331" s="20"/>
+      <c r="K330" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" s="40"/>
+      <c r="B331" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C331" s="13"/>
       <c r="D331" s="39"/>
       <c r="E331" s="9"/>
@@ -8652,15 +8709,19 @@
       <c r="H331" s="39"/>
       <c r="I331" s="9"/>
       <c r="J331" s="11"/>
-      <c r="K331" s="20"/>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A332" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B332" s="20"/>
+      <c r="K331" s="49">
+        <v>45080</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" s="40"/>
+      <c r="B332" s="20" t="s">
+        <v>203</v>
+      </c>
       <c r="C332" s="13"/>
-      <c r="D332" s="39"/>
+      <c r="D332" s="39">
+        <v>0.18300000000000002</v>
+      </c>
       <c r="E332" s="9"/>
       <c r="F332" s="20"/>
       <c r="G332" s="13" t="str">
@@ -8670,25 +8731,545 @@
       <c r="H332" s="39"/>
       <c r="I332" s="9"/>
       <c r="J332" s="11"/>
-      <c r="K332" s="20"/>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K332" s="49"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B333" s="20"/>
-      <c r="C333" s="13"/>
-      <c r="D333" s="39"/>
+        <v>45078</v>
+      </c>
+      <c r="B333" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C333" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D333" s="39">
+        <v>1.0189999999999999</v>
+      </c>
       <c r="E333" s="9"/>
       <c r="F333" s="20"/>
-      <c r="G333" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G333" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H333" s="39"/>
       <c r="I333" s="9"/>
       <c r="J333" s="11"/>
-      <c r="K333" s="20"/>
+      <c r="K333" s="49"/>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B334" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C334" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D334" s="39">
+        <v>0.11200000000000002</v>
+      </c>
+      <c r="E334" s="9"/>
+      <c r="F334" s="20"/>
+      <c r="G334" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H334" s="39"/>
+      <c r="I334" s="9"/>
+      <c r="J334" s="11"/>
+      <c r="K334" s="20"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B335" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C335" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D335" s="39"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="20"/>
+      <c r="G335" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H335" s="39"/>
+      <c r="I335" s="9"/>
+      <c r="J335" s="11"/>
+      <c r="K335" s="49">
+        <v>45143</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" s="40"/>
+      <c r="B336" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C336" s="13"/>
+      <c r="D336" s="39"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="20"/>
+      <c r="G336" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H336" s="39">
+        <v>2</v>
+      </c>
+      <c r="I336" s="9"/>
+      <c r="J336" s="11"/>
+      <c r="K336" s="49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" s="40"/>
+      <c r="B337" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C337" s="13"/>
+      <c r="D337" s="39">
+        <v>2</v>
+      </c>
+      <c r="E337" s="9"/>
+      <c r="F337" s="20"/>
+      <c r="G337" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H337" s="39"/>
+      <c r="I337" s="9"/>
+      <c r="J337" s="11"/>
+      <c r="K337" s="49" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" s="40"/>
+      <c r="B338" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C338" s="13"/>
+      <c r="D338" s="39">
+        <v>2E-3</v>
+      </c>
+      <c r="E338" s="9"/>
+      <c r="F338" s="20"/>
+      <c r="G338" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H338" s="39"/>
+      <c r="I338" s="9"/>
+      <c r="J338" s="11"/>
+      <c r="K338" s="49"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B339" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C339" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D339" s="39">
+        <v>1.5270000000000001</v>
+      </c>
+      <c r="E339" s="9"/>
+      <c r="F339" s="20"/>
+      <c r="G339" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H339" s="39"/>
+      <c r="I339" s="9"/>
+      <c r="J339" s="11"/>
+      <c r="K339" s="20"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B340" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C340" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D340" s="39">
+        <v>1.9000000000000003E-2</v>
+      </c>
+      <c r="E340" s="9"/>
+      <c r="F340" s="20"/>
+      <c r="G340" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H340" s="39"/>
+      <c r="I340" s="9"/>
+      <c r="J340" s="11"/>
+      <c r="K340" s="20"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B341" s="20"/>
+      <c r="C341" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D341" s="39"/>
+      <c r="E341" s="9"/>
+      <c r="F341" s="20"/>
+      <c r="G341" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H341" s="39"/>
+      <c r="I341" s="9"/>
+      <c r="J341" s="11"/>
+      <c r="K341" s="20"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B342" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C342" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D342" s="39">
+        <v>4</v>
+      </c>
+      <c r="E342" s="9"/>
+      <c r="F342" s="20"/>
+      <c r="G342" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H342" s="39"/>
+      <c r="I342" s="9"/>
+      <c r="J342" s="11"/>
+      <c r="K342" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" s="40"/>
+      <c r="B343" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C343" s="13"/>
+      <c r="D343" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="E343" s="9"/>
+      <c r="F343" s="20"/>
+      <c r="G343" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H343" s="39"/>
+      <c r="I343" s="9"/>
+      <c r="J343" s="11"/>
+      <c r="K343" s="20"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B344" s="20"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="39"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="20"/>
+      <c r="G344" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H344" s="39"/>
+      <c r="I344" s="9"/>
+      <c r="J344" s="11"/>
+      <c r="K344" s="20"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B345" s="20"/>
+      <c r="C345" s="13"/>
+      <c r="D345" s="39"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="20"/>
+      <c r="G345" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H345" s="39"/>
+      <c r="I345" s="9"/>
+      <c r="J345" s="11"/>
+      <c r="K345" s="20"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B346" s="20"/>
+      <c r="C346" s="13"/>
+      <c r="D346" s="39"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="20"/>
+      <c r="G346" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H346" s="39"/>
+      <c r="I346" s="9"/>
+      <c r="J346" s="11"/>
+      <c r="K346" s="20"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B347" s="20"/>
+      <c r="C347" s="13"/>
+      <c r="D347" s="39"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="20"/>
+      <c r="G347" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H347" s="39"/>
+      <c r="I347" s="9"/>
+      <c r="J347" s="11"/>
+      <c r="K347" s="20"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A348" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B348" s="20"/>
+      <c r="C348" s="13"/>
+      <c r="D348" s="39"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="20"/>
+      <c r="G348" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H348" s="39"/>
+      <c r="I348" s="9"/>
+      <c r="J348" s="11"/>
+      <c r="K348" s="20"/>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B349" s="20"/>
+      <c r="C349" s="13"/>
+      <c r="D349" s="39"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="20"/>
+      <c r="G349" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H349" s="39"/>
+      <c r="I349" s="9"/>
+      <c r="J349" s="11"/>
+      <c r="K349" s="20"/>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B350" s="20"/>
+      <c r="C350" s="13"/>
+      <c r="D350" s="39"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="20"/>
+      <c r="G350" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H350" s="39"/>
+      <c r="I350" s="9"/>
+      <c r="J350" s="11"/>
+      <c r="K350" s="20"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B351" s="20"/>
+      <c r="C351" s="13"/>
+      <c r="D351" s="39"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="20"/>
+      <c r="G351" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H351" s="39"/>
+      <c r="I351" s="9"/>
+      <c r="J351" s="11"/>
+      <c r="K351" s="20"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B352" s="20"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="39"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="20"/>
+      <c r="G352" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H352" s="39"/>
+      <c r="I352" s="9"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="20"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B353" s="20"/>
+      <c r="C353" s="13"/>
+      <c r="D353" s="39"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="20"/>
+      <c r="G353" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H353" s="39"/>
+      <c r="I353" s="9"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="20"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B354" s="20"/>
+      <c r="C354" s="13"/>
+      <c r="D354" s="39"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="20"/>
+      <c r="G354" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H354" s="39"/>
+      <c r="I354" s="9"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="20"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B355" s="20"/>
+      <c r="C355" s="13"/>
+      <c r="D355" s="39"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="20"/>
+      <c r="G355" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H355" s="39"/>
+      <c r="I355" s="9"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="20"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B356" s="20"/>
+      <c r="C356" s="13"/>
+      <c r="D356" s="39"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="20"/>
+      <c r="G356" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H356" s="39"/>
+      <c r="I356" s="9"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="20"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="40">
+        <v>45658</v>
+      </c>
+      <c r="B357" s="20"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="39"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="20"/>
+      <c r="G357" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H357" s="39"/>
+      <c r="I357" s="9"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="20"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="40">
+        <v>45689</v>
+      </c>
+      <c r="B358" s="20"/>
+      <c r="C358" s="13"/>
+      <c r="D358" s="39"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H358" s="39"/>
+      <c r="I358" s="9"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="20"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="40">
+        <v>45717</v>
+      </c>
+      <c r="B359" s="20"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="39"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="20"/>
+      <c r="G359" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H359" s="39"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8705,10 +9286,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8731,28 +9312,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -8765,7 +9346,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8794,25 +9375,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>61.686</v>
       </c>
       <c r="B3" s="11">
         <v>64.792000000000002</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11">
         <v>3</v>
       </c>
-      <c r="E3" s="11">
-        <v>5</v>
-      </c>
       <c r="F3" s="11">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>3.6520000000000001</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -8824,17 +9403,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
@@ -8858,10 +9437,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>504.09400000000005</v>
+        <v>493.06200000000013</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -8889,7 +9468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8915,7 +9494,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8941,7 +9520,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8967,7 +9546,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8993,7 +9572,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9019,7 +9598,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9045,7 +9624,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9071,7 +9650,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9091,7 +9670,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9111,7 +9690,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9131,7 +9710,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9152,7 +9731,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9173,7 +9752,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9194,7 +9773,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9215,7 +9794,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9236,7 +9815,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9257,7 +9836,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9278,7 +9857,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9299,7 +9878,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9320,7 +9899,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9341,7 +9920,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9362,7 +9941,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9383,7 +9962,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9404,7 +9983,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9425,7 +10004,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9446,7 +10025,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9467,7 +10046,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9488,7 +10067,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9509,7 +10088,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9530,7 +10109,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9551,7 +10130,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9560,7 +10139,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9569,7 +10148,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9578,7 +10157,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9587,7 +10166,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9596,7 +10175,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9605,7 +10184,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9614,7 +10193,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9623,7 +10202,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9632,7 +10211,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9641,7 +10220,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9650,7 +10229,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9659,7 +10238,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9668,7 +10247,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9677,7 +10256,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9686,7 +10265,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9695,7 +10274,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9704,7 +10283,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9713,7 +10292,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9722,7 +10301,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9731,7 +10310,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9740,7 +10319,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9749,7 +10328,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9758,7 +10337,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9767,7 +10346,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9776,7 +10355,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9785,7 +10364,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9794,7 +10373,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9803,7 +10382,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9812,7 +10391,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CITY MARKET/DIMAPILIS ARIEL.xlsx
+++ b/REGULAR/CITY MARKET/DIMAPILIS ARIEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CITY MARKET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CITY MARKET\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B137B5-AAE6-4BB5-BCE0-6F9300B4782C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="211">
   <si>
     <t>PERIOD</t>
   </si>
@@ -681,7 +682,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1350,7 +1351,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1367,25 +1368,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K359" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K359" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1692,34 +1693,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K359"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A313" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A337" activePane="bottomLeft"/>
       <selection activeCell="H8" sqref="H8"/>
-      <selection pane="bottomLeft" activeCell="E324" sqref="E324"/>
+      <selection pane="bottomLeft" activeCell="K346" sqref="K346"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1742,7 +1743,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1764,7 +1765,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1786,7 +1787,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1794,7 +1795,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1807,7 +1808,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1824,7 +1825,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1868,7 +1869,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>140.27000000000007</v>
+        <v>141.52000000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1878,12 +1879,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>352.79200000000003</v>
+        <v>353.04200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="20" t="s">
         <v>83</v>
@@ -1901,7 +1902,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>84</v>
       </c>
@@ -1923,7 +1924,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>37257</v>
       </c>
@@ -1943,7 +1944,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>37288</v>
       </c>
@@ -1963,7 +1964,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>37316</v>
       </c>
@@ -1983,7 +1984,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>37347</v>
       </c>
@@ -2003,7 +2004,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>37377</v>
       </c>
@@ -2023,7 +2024,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>37408</v>
       </c>
@@ -2043,7 +2044,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>37438</v>
       </c>
@@ -2063,7 +2064,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>37469</v>
       </c>
@@ -2083,7 +2084,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>37500</v>
       </c>
@@ -2103,7 +2104,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>37530</v>
       </c>
@@ -2123,7 +2124,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>37561</v>
       </c>
@@ -2147,7 +2148,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>37591</v>
       </c>
@@ -2167,7 +2168,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>86</v>
       </c>
@@ -2185,7 +2186,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>37622</v>
       </c>
@@ -2205,7 +2206,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>37653</v>
       </c>
@@ -2225,7 +2226,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>37681</v>
       </c>
@@ -2245,7 +2246,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>37712</v>
       </c>
@@ -2265,7 +2266,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>37742</v>
       </c>
@@ -2285,7 +2286,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>37773</v>
       </c>
@@ -2305,7 +2306,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>37803</v>
       </c>
@@ -2325,7 +2326,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>37834</v>
       </c>
@@ -2345,7 +2346,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>37865</v>
       </c>
@@ -2365,7 +2366,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>37895</v>
       </c>
@@ -2385,7 +2386,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>37926</v>
       </c>
@@ -2405,7 +2406,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>37956</v>
       </c>
@@ -2429,7 +2430,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>87</v>
       </c>
@@ -2444,7 +2445,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>37987</v>
       </c>
@@ -2464,7 +2465,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>38018</v>
       </c>
@@ -2484,7 +2485,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>38047</v>
       </c>
@@ -2504,7 +2505,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>38078</v>
       </c>
@@ -2524,7 +2525,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>38108</v>
       </c>
@@ -2544,7 +2545,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>38139</v>
       </c>
@@ -2568,7 +2569,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>38169</v>
       </c>
@@ -2592,7 +2593,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>38200</v>
       </c>
@@ -2616,7 +2617,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>38231</v>
       </c>
@@ -2636,7 +2637,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>38261</v>
       </c>
@@ -2656,7 +2657,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>38292</v>
       </c>
@@ -2676,7 +2677,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>38322</v>
       </c>
@@ -2700,7 +2701,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
         <v>91</v>
       </c>
@@ -2718,7 +2719,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>38353</v>
       </c>
@@ -2738,7 +2739,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>38384</v>
       </c>
@@ -2758,7 +2759,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>38412</v>
       </c>
@@ -2778,7 +2779,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>38443</v>
       </c>
@@ -2798,7 +2799,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>38473</v>
       </c>
@@ -2818,7 +2819,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>38504</v>
       </c>
@@ -2838,7 +2839,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>38534</v>
       </c>
@@ -2858,7 +2859,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>38565</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>38596</v>
       </c>
@@ -2902,7 +2903,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>38626</v>
       </c>
@@ -2922,7 +2923,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>38657</v>
       </c>
@@ -2942,7 +2943,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>38687</v>
       </c>
@@ -2966,7 +2967,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>94</v>
       </c>
@@ -2981,7 +2982,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>38718</v>
       </c>
@@ -3001,7 +3002,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>38749</v>
       </c>
@@ -3021,7 +3022,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>38777</v>
       </c>
@@ -3041,7 +3042,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>38808</v>
       </c>
@@ -3061,7 +3062,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>38838</v>
       </c>
@@ -3081,7 +3082,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>38869</v>
       </c>
@@ -3101,7 +3102,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>38899</v>
       </c>
@@ -3121,7 +3122,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>38930</v>
       </c>
@@ -3141,7 +3142,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>38961</v>
       </c>
@@ -3161,7 +3162,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>38991</v>
       </c>
@@ -3181,7 +3182,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>39022</v>
       </c>
@@ -3201,7 +3202,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>39052</v>
       </c>
@@ -3225,7 +3226,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>97</v>
       </c>
@@ -3240,7 +3241,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>39083</v>
       </c>
@@ -3264,7 +3265,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>39114</v>
       </c>
@@ -3288,7 +3289,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>39142</v>
       </c>
@@ -3308,7 +3309,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>39173</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>39192</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>39203</v>
       </c>
@@ -3354,7 +3355,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>39234</v>
       </c>
@@ -3374,7 +3375,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>39264</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>39295</v>
       </c>
@@ -3420,7 +3421,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>39326</v>
       </c>
@@ -3440,7 +3441,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>39356</v>
       </c>
@@ -3460,7 +3461,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>39387</v>
       </c>
@@ -3480,7 +3481,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>39417</v>
       </c>
@@ -3504,7 +3505,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="48" t="s">
         <v>99</v>
       </c>
@@ -3519,7 +3520,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>39448</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>101</v>
@@ -3560,7 +3561,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>39479</v>
       </c>
@@ -3584,7 +3585,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>39508</v>
       </c>
@@ -3608,7 +3609,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>39539</v>
       </c>
@@ -3632,7 +3633,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>39569</v>
       </c>
@@ -3656,7 +3657,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>39600</v>
       </c>
@@ -3676,7 +3677,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>39630</v>
       </c>
@@ -3696,7 +3697,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>39661</v>
       </c>
@@ -3716,7 +3717,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>39692</v>
       </c>
@@ -3736,7 +3737,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>39722</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>106</v>
@@ -3779,7 +3780,7 @@
         <v>39731</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>64</v>
@@ -3798,7 +3799,7 @@
         <v>39729</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>39753</v>
       </c>
@@ -3822,7 +3823,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>39783</v>
       </c>
@@ -3846,7 +3847,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>109</v>
@@ -3863,7 +3864,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="48" t="s">
         <v>110</v>
       </c>
@@ -3878,7 +3879,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>39814</v>
       </c>
@@ -3902,7 +3903,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>39845</v>
       </c>
@@ -3926,7 +3927,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>39873</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>115</v>
@@ -3967,7 +3968,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>39904</v>
       </c>
@@ -3991,7 +3992,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>39934</v>
       </c>
@@ -4015,7 +4016,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>39965</v>
       </c>
@@ -4039,7 +4040,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>39995</v>
       </c>
@@ -4063,7 +4064,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>40026</v>
       </c>
@@ -4087,7 +4088,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>40057</v>
       </c>
@@ -4111,7 +4112,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>40087</v>
       </c>
@@ -4137,7 +4138,7 @@
         <v>40141</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>122</v>
@@ -4154,7 +4155,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>40118</v>
       </c>
@@ -4178,7 +4179,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>40148</v>
       </c>
@@ -4204,7 +4205,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>125</v>
@@ -4221,7 +4222,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="48" t="s">
         <v>127</v>
       </c>
@@ -4236,7 +4237,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>40179</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>128</v>
@@ -4279,7 +4280,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>40210</v>
       </c>
@@ -4303,7 +4304,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>40238</v>
       </c>
@@ -4327,7 +4328,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>40269</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>141</v>
@@ -4370,7 +4371,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>138</v>
@@ -4389,7 +4390,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>109</v>
@@ -4409,7 +4410,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>40299</v>
       </c>
@@ -4433,7 +4434,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>40330</v>
       </c>
@@ -4457,7 +4458,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>40360</v>
       </c>
@@ -4481,7 +4482,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>40391</v>
       </c>
@@ -4507,7 +4508,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>135</v>
@@ -4524,7 +4525,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>40422</v>
       </c>
@@ -4548,7 +4549,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>137</v>
@@ -4565,7 +4566,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>40452</v>
       </c>
@@ -4589,7 +4590,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>40483</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>40527</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>145</v>
@@ -4635,7 +4636,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>40513</v>
       </c>
@@ -4659,7 +4660,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="48" t="s">
         <v>147</v>
       </c>
@@ -4674,7 +4675,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>40544</v>
       </c>
@@ -4698,7 +4699,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>149</v>
@@ -4715,7 +4716,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>40575</v>
       </c>
@@ -4739,7 +4740,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>40603</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>152</v>
@@ -4783,7 +4784,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>40634</v>
       </c>
@@ -4807,7 +4808,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>40664</v>
       </c>
@@ -4831,7 +4832,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>40695</v>
       </c>
@@ -4855,7 +4856,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>40725</v>
       </c>
@@ -4879,7 +4880,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>40756</v>
       </c>
@@ -4903,7 +4904,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>40787</v>
       </c>
@@ -4927,7 +4928,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>40817</v>
       </c>
@@ -4951,7 +4952,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>40848</v>
       </c>
@@ -4975,7 +4976,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>40878</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>89</v>
@@ -5018,7 +5019,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="48" t="s">
         <v>162</v>
       </c>
@@ -5033,7 +5034,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>40909</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>40940</v>
       </c>
@@ -5077,7 +5078,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>40969</v>
       </c>
@@ -5097,7 +5098,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>41000</v>
       </c>
@@ -5121,7 +5122,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>41030</v>
       </c>
@@ -5141,7 +5142,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>41061</v>
       </c>
@@ -5161,7 +5162,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>41091</v>
       </c>
@@ -5181,7 +5182,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>41122</v>
       </c>
@@ -5201,7 +5202,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>41153</v>
       </c>
@@ -5221,7 +5222,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>41183</v>
       </c>
@@ -5241,7 +5242,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>41214</v>
       </c>
@@ -5267,7 +5268,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>41244</v>
       </c>
@@ -5287,7 +5288,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="48" t="s">
         <v>166</v>
       </c>
@@ -5305,7 +5306,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>41275</v>
       </c>
@@ -5325,7 +5326,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>41306</v>
       </c>
@@ -5345,7 +5346,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>41334</v>
       </c>
@@ -5365,7 +5366,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>41365</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>65</v>
@@ -5409,7 +5410,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>41395</v>
       </c>
@@ -5429,7 +5430,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>41426</v>
       </c>
@@ -5449,7 +5450,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>41456</v>
       </c>
@@ -5469,7 +5470,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>41487</v>
       </c>
@@ -5489,7 +5490,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>41518</v>
       </c>
@@ -5509,7 +5510,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>41548</v>
       </c>
@@ -5529,7 +5530,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>41579</v>
       </c>
@@ -5555,7 +5556,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>41609</v>
       </c>
@@ -5575,7 +5576,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="48" t="s">
         <v>170</v>
       </c>
@@ -5590,7 +5591,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>41640</v>
       </c>
@@ -5610,7 +5611,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>41671</v>
       </c>
@@ -5630,7 +5631,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>41699</v>
       </c>
@@ -5650,7 +5651,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>41730</v>
       </c>
@@ -5672,7 +5673,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>41760</v>
       </c>
@@ -5698,7 +5699,7 @@
         <v>41785</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>41791</v>
       </c>
@@ -5718,7 +5719,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>41821</v>
       </c>
@@ -5738,7 +5739,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>41852</v>
       </c>
@@ -5758,7 +5759,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>41883</v>
       </c>
@@ -5778,7 +5779,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>41913</v>
       </c>
@@ -5798,7 +5799,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>41944</v>
       </c>
@@ -5818,7 +5819,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>41974</v>
       </c>
@@ -5842,7 +5843,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="48" t="s">
         <v>171</v>
       </c>
@@ -5860,7 +5861,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>42005</v>
       </c>
@@ -5880,7 +5881,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>42036</v>
       </c>
@@ -5900,7 +5901,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>42064</v>
       </c>
@@ -5920,7 +5921,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>42095</v>
       </c>
@@ -5940,7 +5941,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>42125</v>
       </c>
@@ -5960,7 +5961,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>42156</v>
       </c>
@@ -5980,7 +5981,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>42186</v>
       </c>
@@ -6000,7 +6001,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>42217</v>
       </c>
@@ -6020,7 +6021,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>42248</v>
       </c>
@@ -6040,7 +6041,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>42278</v>
       </c>
@@ -6060,7 +6061,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>42309</v>
       </c>
@@ -6080,7 +6081,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>42339</v>
       </c>
@@ -6104,7 +6105,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="48" t="s">
         <v>172</v>
       </c>
@@ -6119,7 +6120,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>42370</v>
       </c>
@@ -6143,7 +6144,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>42401</v>
       </c>
@@ -6167,7 +6168,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>42430</v>
       </c>
@@ -6191,7 +6192,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>42461</v>
       </c>
@@ -6215,7 +6216,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>42491</v>
       </c>
@@ -6239,7 +6240,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>42522</v>
       </c>
@@ -6263,7 +6264,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>42552</v>
       </c>
@@ -6287,7 +6288,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>42583</v>
       </c>
@@ -6311,7 +6312,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>42614</v>
       </c>
@@ -6335,7 +6336,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>42644</v>
       </c>
@@ -6359,7 +6360,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>42675</v>
       </c>
@@ -6383,7 +6384,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>42705</v>
       </c>
@@ -6407,7 +6408,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>183</v>
@@ -6424,7 +6425,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="48" t="s">
         <v>184</v>
       </c>
@@ -6439,7 +6440,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>42736</v>
       </c>
@@ -6459,7 +6460,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>42767</v>
       </c>
@@ -6479,7 +6480,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>42795</v>
       </c>
@@ -6499,7 +6500,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>42826</v>
       </c>
@@ -6523,7 +6524,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>42856</v>
       </c>
@@ -6543,7 +6544,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>42887</v>
       </c>
@@ -6569,7 +6570,7 @@
         <v>42900</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>42917</v>
       </c>
@@ -6589,7 +6590,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>42948</v>
       </c>
@@ -6609,7 +6610,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>42979</v>
       </c>
@@ -6629,7 +6630,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>43009</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>43040</v>
       </c>
@@ -6675,7 +6676,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>43070</v>
       </c>
@@ -6699,7 +6700,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="48" t="s">
         <v>45</v>
       </c>
@@ -6717,7 +6718,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>43101</v>
       </c>
@@ -6737,7 +6738,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>43132</v>
       </c>
@@ -6757,7 +6758,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>43160</v>
       </c>
@@ -6777,7 +6778,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>43191</v>
       </c>
@@ -6797,7 +6798,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="41">
         <v>43221</v>
       </c>
@@ -6817,7 +6818,7 @@
       <c r="J243" s="12"/>
       <c r="K243" s="15"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>43252</v>
       </c>
@@ -6837,7 +6838,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>43282</v>
       </c>
@@ -6863,7 +6864,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>43313</v>
       </c>
@@ -6889,7 +6890,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>43344</v>
       </c>
@@ -6909,7 +6910,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>43374</v>
       </c>
@@ -6929,7 +6930,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>43405</v>
       </c>
@@ -6949,7 +6950,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>43435</v>
       </c>
@@ -6973,7 +6974,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="48" t="s">
         <v>46</v>
       </c>
@@ -6991,7 +6992,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>43466</v>
       </c>
@@ -7011,7 +7012,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>43497</v>
       </c>
@@ -7031,7 +7032,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>43525</v>
       </c>
@@ -7051,7 +7052,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>43556</v>
       </c>
@@ -7071,7 +7072,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>43586</v>
       </c>
@@ -7091,7 +7092,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>43617</v>
       </c>
@@ -7111,7 +7112,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>43647</v>
       </c>
@@ -7131,7 +7132,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>43678</v>
       </c>
@@ -7151,7 +7152,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>43709</v>
       </c>
@@ -7171,7 +7172,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>43739</v>
       </c>
@@ -7197,7 +7198,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>59</v>
@@ -7221,7 +7222,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>43770</v>
       </c>
@@ -7241,7 +7242,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>43800</v>
       </c>
@@ -7265,7 +7266,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="48"/>
       <c r="B265" s="20" t="s">
         <v>124</v>
@@ -7285,7 +7286,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="48" t="s">
         <v>47</v>
       </c>
@@ -7303,7 +7304,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>43831</v>
       </c>
@@ -7327,7 +7328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>190</v>
@@ -7349,7 +7350,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>64</v>
@@ -7373,7 +7374,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>43862</v>
       </c>
@@ -7393,7 +7394,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>43891</v>
       </c>
@@ -7413,7 +7414,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>43922</v>
       </c>
@@ -7433,7 +7434,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>43952</v>
       </c>
@@ -7453,7 +7454,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>43983</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>85</v>
@@ -7501,7 +7502,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>44013</v>
       </c>
@@ -7521,7 +7522,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>44044</v>
       </c>
@@ -7541,7 +7542,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>44075</v>
       </c>
@@ -7561,7 +7562,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>44105</v>
       </c>
@@ -7581,7 +7582,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>44136</v>
       </c>
@@ -7601,7 +7602,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>44166</v>
       </c>
@@ -7621,7 +7622,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="48" t="s">
         <v>50</v>
       </c>
@@ -7639,7 +7640,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>44197</v>
       </c>
@@ -7659,7 +7660,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>44228</v>
       </c>
@@ -7679,7 +7680,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>44256</v>
       </c>
@@ -7699,7 +7700,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>44287</v>
       </c>
@@ -7719,7 +7720,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>44317</v>
       </c>
@@ -7739,7 +7740,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>44348</v>
       </c>
@@ -7759,7 +7760,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>44378</v>
       </c>
@@ -7779,7 +7780,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>44409</v>
       </c>
@@ -7799,7 +7800,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>44440</v>
       </c>
@@ -7819,7 +7820,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>44470</v>
       </c>
@@ -7839,7 +7840,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>44501</v>
       </c>
@@ -7859,7 +7860,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>44531</v>
       </c>
@@ -7883,7 +7884,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23" t="s">
         <v>51</v>
       </c>
@@ -7901,7 +7902,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>44562</v>
       </c>
@@ -7921,7 +7922,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>44593</v>
       </c>
@@ -7941,7 +7942,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>44621</v>
       </c>
@@ -7961,7 +7962,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>44652</v>
       </c>
@@ -7987,7 +7988,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>82</v>
@@ -8007,7 +8008,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>44682</v>
       </c>
@@ -8033,7 +8034,7 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>80</v>
@@ -8053,7 +8054,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="49"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>44713</v>
       </c>
@@ -8079,7 +8080,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>79</v>
@@ -8099,7 +8100,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>44743</v>
       </c>
@@ -8125,7 +8126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>75</v>
@@ -8147,7 +8148,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>44774</v>
       </c>
@@ -8173,7 +8174,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>44805</v>
       </c>
@@ -8199,7 +8200,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>73</v>
@@ -8219,7 +8220,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="49"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>44835</v>
       </c>
@@ -8245,7 +8246,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>72</v>
@@ -8265,7 +8266,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>44866</v>
       </c>
@@ -8291,7 +8292,7 @@
         <v>44891</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>69</v>
@@ -8311,7 +8312,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="49"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>44896</v>
       </c>
@@ -8337,7 +8338,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>54</v>
@@ -8357,7 +8358,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>67</v>
@@ -8377,7 +8378,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="48" t="s">
         <v>55</v>
       </c>
@@ -8395,7 +8396,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>44927</v>
       </c>
@@ -8421,7 +8422,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>210</v>
@@ -8441,7 +8442,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>44958</v>
       </c>
@@ -8467,7 +8468,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>208</v>
@@ -8487,7 +8488,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="49"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>44986</v>
       </c>
@@ -8513,7 +8514,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>59</v>
@@ -8535,7 +8536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>75</v>
@@ -8557,7 +8558,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>207</v>
@@ -8577,7 +8578,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="49"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>45017</v>
       </c>
@@ -8603,7 +8604,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>194</v>
@@ -8625,7 +8626,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>205</v>
@@ -8645,7 +8646,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>45047</v>
       </c>
@@ -8671,7 +8672,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>59</v>
@@ -8693,7 +8694,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>65</v>
@@ -8713,7 +8714,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>203</v>
@@ -8733,7 +8734,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="49"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>45078</v>
       </c>
@@ -8757,7 +8758,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="49"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>45108</v>
       </c>
@@ -8781,7 +8782,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>45139</v>
       </c>
@@ -8805,7 +8806,7 @@
         <v>45143</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>59</v>
@@ -8827,7 +8828,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>75</v>
@@ -8849,7 +8850,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>200</v>
@@ -8869,7 +8870,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="49"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>45170</v>
       </c>
@@ -8893,7 +8894,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>45200</v>
       </c>
@@ -8917,7 +8918,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>45231</v>
       </c>
@@ -8937,7 +8938,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>45261</v>
       </c>
@@ -8963,7 +8964,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>196</v>
@@ -8983,7 +8984,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="48" t="s">
         <v>193</v>
       </c>
@@ -9001,25 +9002,33 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>45292</v>
       </c>
-      <c r="B345" s="20"/>
-      <c r="C345" s="13"/>
+      <c r="B345" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C345" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D345" s="39"/>
       <c r="E345" s="9"/>
       <c r="F345" s="20"/>
-      <c r="G345" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H345" s="39"/>
+      <c r="G345" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H345" s="39">
+        <v>1</v>
+      </c>
       <c r="I345" s="9"/>
       <c r="J345" s="11"/>
-      <c r="K345" s="20"/>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K345" s="49">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>45323</v>
       </c>
@@ -9037,7 +9046,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>45352</v>
       </c>
@@ -9055,7 +9064,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>45383</v>
       </c>
@@ -9073,7 +9082,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>45413</v>
       </c>
@@ -9091,7 +9100,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>45444</v>
       </c>
@@ -9109,7 +9118,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>45474</v>
       </c>
@@ -9127,7 +9136,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>45505</v>
       </c>
@@ -9145,7 +9154,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>45536</v>
       </c>
@@ -9163,7 +9172,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>45566</v>
       </c>
@@ -9181,7 +9190,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>45597</v>
       </c>
@@ -9199,7 +9208,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>45627</v>
       </c>
@@ -9217,7 +9226,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>45658</v>
       </c>
@@ -9235,7 +9244,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>45689</v>
       </c>
@@ -9253,7 +9262,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>45717</v>
       </c>
@@ -9286,10 +9295,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9312,28 +9321,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -9346,7 +9355,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9375,7 +9384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>61.686</v>
       </c>
@@ -9403,17 +9412,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
@@ -9437,10 +9446,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>493.06200000000013</v>
+        <v>494.56200000000013</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -9468,7 +9477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9494,7 +9503,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9520,7 +9529,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9546,7 +9555,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9572,7 +9581,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9598,7 +9607,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9624,7 +9633,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9650,7 +9659,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9670,7 +9679,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9690,7 +9699,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9710,7 +9719,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9731,7 +9740,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9752,7 +9761,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9773,7 +9782,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9794,7 +9803,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9815,7 +9824,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9836,7 +9845,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9857,7 +9866,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9878,7 +9887,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9899,7 +9908,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9920,7 +9929,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9941,7 +9950,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9962,7 +9971,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9983,7 +9992,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10004,7 +10013,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10025,7 +10034,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10046,7 +10055,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10067,7 +10076,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10088,7 +10097,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10109,7 +10118,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10130,7 +10139,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10139,7 +10148,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10148,7 +10157,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10157,7 +10166,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10166,7 +10175,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10175,7 +10184,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10184,7 +10193,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10193,7 +10202,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10202,7 +10211,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10211,7 +10220,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10220,7 +10229,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10229,7 +10238,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10238,7 +10247,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10247,7 +10256,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10256,7 +10265,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10265,7 +10274,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10274,7 +10283,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10283,7 +10292,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10292,7 +10301,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10301,7 +10310,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10310,7 +10319,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10319,7 +10328,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10328,7 +10337,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10337,7 +10346,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10346,7 +10355,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10355,7 +10364,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10364,7 +10373,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10373,7 +10382,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10382,7 +10391,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10391,7 +10400,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
